--- a/企業関係.xlsx
+++ b/企業関係.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56B1BA1-03D8-4665-B792-738D600595ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A72CD-B727-4DF6-B0C0-01B51D73185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22B3409E-56E9-42E3-B993-65537D66DF2A}"/>
   </bookViews>
@@ -34,51 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
-  <si>
-    <t>神央薬品(CG)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グランディング(両方)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フレイム(CG)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>studio A-CAT(CG)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピコナ(CG)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォントワークス(?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガンバリオン(両方)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラチナゲームズ(両方)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Million Edge(CG)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムソフト・ベータ()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cygames(両方)</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>日本一ソフトウェア</t>
     <phoneticPr fontId="1"/>
@@ -178,10 +134,6 @@
   </si>
   <si>
     <t>https://www.ss-beta.co.jp/recruit/new_graduate.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GEMBA(CG)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -429,6 +381,239 @@
     <rPh sb="17" eb="19">
       <t>ウケツケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクトブレイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://linkedbrain.jp/recruit/student/studentposition_f06/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積極的に募集はしていないが、働きたい学生に対して
+インターンとして迎えるパターンがある
+選考プロセスの中にインターンがある</t>
+    <rPh sb="0" eb="3">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ムカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アールフォース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://r-force.co.jp/recruit/newgrad/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受けるとしたらクライアントエンジニア？</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cygames</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムソフト・ベータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Million Edge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラチナゲームズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンバリオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピコナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>studio A-CAT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グランディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神央薬品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GEMBA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ulachinagames.platinumgames.co.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月以降</t>
+    <rPh sb="1" eb="4">
+      <t>ガツイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターン情報が正しいのか怪しい</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://linkedbrain.jp/recruit/student/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去二年は1月中に次年度の採用情報を公開
+23卒は22年の9月に
+24卒は23年の12月に採用終了している</t>
+    <rPh sb="0" eb="4">
+      <t>カコニネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガツジュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジネンド</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>サイヨウジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ソツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ソツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>サイヨウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/25/pc/corpinfo/displayInternship/
+index?corpId=255250&amp;optNo=wzICd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9/6~8実施。応募締め切りは7/15</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウボシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品展示会に
+来る企業</t>
+    <rPh sb="0" eb="5">
+      <t>サクヒンテンジカイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>興味がある企業</t>
+    <rPh sb="0" eb="2">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creaters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://new-graduate.creatures.co.jp/recruitment/job_and_entry/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1期：2023年12月1日～2024年1月15日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマーのインターンはなさそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/25/pc/corpinfo/displayPrevRecruitingCourseList/index?corpId=97284</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,7 +655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -607,12 +792,96 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -624,42 +893,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,20 +936,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1018,376 +1326,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597FD4CE-D064-4429-BBD2-6F67AEE62654}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="56.75" customWidth="1"/>
     <col min="7" max="7" width="43.875" customWidth="1"/>
+    <col min="8" max="8" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="25"/>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="25"/>
+      <c r="B5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="25"/>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="25"/>
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="94.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="25"/>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="25"/>
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="25"/>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="25"/>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="25"/>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="26"/>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="25"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="25"/>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="25"/>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
+      <c r="E20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26"/>
+      <c r="B21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{334BAF6A-D045-456C-8381-768D9D75E10B}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{59947DFA-96B5-4FBB-9979-BDBB14236B43}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{64409F98-47F7-47F4-8717-681E46672EDD}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{8CDC801C-B037-4DB4-AF3E-C913B5ACC271}"/>
-    <hyperlink ref="A2" r:id="rId5" xr:uid="{2377A04C-CCE2-4CFF-980F-6687C68F6494}"/>
-    <hyperlink ref="A3" r:id="rId6" xr:uid="{49926C06-8343-4921-B36D-6FF5B4636CF4}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{6698BEFD-63B7-4AFD-B73B-B36873CBC391}"/>
-    <hyperlink ref="A6" r:id="rId8" xr:uid="{BC4D8B9C-52DC-4977-954A-5000C61275DA}"/>
-    <hyperlink ref="A7" r:id="rId9" xr:uid="{F2AB2955-6199-4A07-A7B2-DA663E869B7D}"/>
-    <hyperlink ref="A8" r:id="rId10" xr:uid="{AFDD55E1-B08A-45B3-8331-65940849BD73}"/>
-    <hyperlink ref="A9" r:id="rId11" xr:uid="{DE1DFEA5-AABC-438B-BCBC-038B1B0BF700}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{E02A12F5-35A5-458A-8282-F4A3E4501101}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{A7A6D634-71CC-4FC2-8556-AE697526B0D8}"/>
-    <hyperlink ref="A10" r:id="rId14" xr:uid="{03D2392A-7235-42E3-9BCF-E55A6F64B893}"/>
-    <hyperlink ref="A11" r:id="rId15" xr:uid="{11D7B2DF-76E2-4ADE-A4BA-1E19C5EFB781}"/>
-    <hyperlink ref="A12" r:id="rId16" xr:uid="{1D34C896-CF3D-40E8-AF7B-7F3CF082BEB1}"/>
-    <hyperlink ref="A13" r:id="rId17" xr:uid="{2EF70649-A579-4E7C-B035-A67786735ABC}"/>
-    <hyperlink ref="A14" r:id="rId18" display="アカツキ(どちらかといえばCG)" xr:uid="{3CE8CFED-B056-4EBC-B3D6-FFB32D8A8D1A}"/>
-    <hyperlink ref="A15" r:id="rId19" xr:uid="{26746399-4667-4542-A8C8-CBC1FAF61D2F}"/>
-    <hyperlink ref="B11" r:id="rId20" xr:uid="{61CFF7E9-0DFD-47EA-A5D6-B705C761B3CA}"/>
-    <hyperlink ref="B10" r:id="rId21" xr:uid="{093AE9ED-488A-47AB-9AD8-82566F511871}"/>
-    <hyperlink ref="D10" r:id="rId22" xr:uid="{C7AD93BB-843E-48DE-8313-876C7D58E27C}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{A7C62B5E-74FC-472A-97D3-E4D3651D3BCB}"/>
-    <hyperlink ref="B9" r:id="rId24" xr:uid="{1CB92493-2370-401E-9058-AEE3EB95B598}"/>
-    <hyperlink ref="B6" r:id="rId25" xr:uid="{A0AD509E-5A01-4BCB-8BDC-16B85AC4240D}"/>
-    <hyperlink ref="B3" r:id="rId26" location="Recruit" xr:uid="{DFD55890-1712-4751-8451-1330E9725F5A}"/>
-    <hyperlink ref="B4" r:id="rId27" xr:uid="{C749E087-3030-422C-A00B-4B53AC9F08C5}"/>
-    <hyperlink ref="D4" r:id="rId28" xr:uid="{3789460F-574F-490F-93D4-1B4466D57DE9}"/>
-    <hyperlink ref="B5" r:id="rId29" xr:uid="{1E062F15-D6E7-40BB-99F0-2965A2838A6A}"/>
-    <hyperlink ref="B2" r:id="rId30" xr:uid="{ED0C1832-10C1-4B60-B83C-CC06C043BEB4}"/>
-    <hyperlink ref="A16" r:id="rId31" xr:uid="{4CFEA92E-3F87-43F0-B339-5863EABBC11A}"/>
-    <hyperlink ref="B16" r:id="rId32" xr:uid="{2065AAD7-EE3A-4470-9B32-AE3EBC783509}"/>
-    <hyperlink ref="F16" r:id="rId33" xr:uid="{1DFBEE68-034B-476F-A91B-CE4EC6755381}"/>
-    <hyperlink ref="F17" r:id="rId34" xr:uid="{117A619D-417B-48BC-8D68-824E21E4FEB8}"/>
-    <hyperlink ref="A18" r:id="rId35" xr:uid="{1CF2C591-EA81-4258-8B7F-CB6B757D861C}"/>
-    <hyperlink ref="B18" r:id="rId36" xr:uid="{86BE8A35-DD59-4E8E-89AC-0EE043F04031}"/>
-    <hyperlink ref="D18" r:id="rId37" xr:uid="{502490BC-60AB-4187-9553-A4F63151CD46}"/>
-    <hyperlink ref="D12" r:id="rId38" xr:uid="{481C4E5A-39D3-4307-94BB-F734212FCC1F}"/>
-    <hyperlink ref="B19" r:id="rId39" xr:uid="{85F35F24-3759-4C81-821A-2B7FAC1B9630}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{334BAF6A-D045-456C-8381-768D9D75E10B}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{59947DFA-96B5-4FBB-9979-BDBB14236B43}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{64409F98-47F7-47F4-8717-681E46672EDD}"/>
+    <hyperlink ref="B4" r:id="rId4" display="グランディング(両方)" xr:uid="{8CDC801C-B037-4DB4-AF3E-C913B5ACC271}"/>
+    <hyperlink ref="B2" r:id="rId5" display="GEMBA(CG)" xr:uid="{2377A04C-CCE2-4CFF-980F-6687C68F6494}"/>
+    <hyperlink ref="B3" r:id="rId6" display="神央薬品(CG)" xr:uid="{49926C06-8343-4921-B36D-6FF5B4636CF4}"/>
+    <hyperlink ref="B5" r:id="rId7" display="フレイム(CG)" xr:uid="{6698BEFD-63B7-4AFD-B73B-B36873CBC391}"/>
+    <hyperlink ref="B6" r:id="rId8" display="studio A-CAT(CG)" xr:uid="{BC4D8B9C-52DC-4977-954A-5000C61275DA}"/>
+    <hyperlink ref="B7" r:id="rId9" display="ピコナ(CG)" xr:uid="{F2AB2955-6199-4A07-A7B2-DA663E869B7D}"/>
+    <hyperlink ref="B8" r:id="rId10" display="ガンバリオン(両方)" xr:uid="{DE1DFEA5-AABC-438B-BCBC-038B1B0BF700}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{E02A12F5-35A5-458A-8282-F4A3E4501101}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{A7A6D634-71CC-4FC2-8556-AE697526B0D8}"/>
+    <hyperlink ref="B9" r:id="rId13" display="プラチナゲームズ(両方)" xr:uid="{03D2392A-7235-42E3-9BCF-E55A6F64B893}"/>
+    <hyperlink ref="B10" r:id="rId14" display="Million Edge(CG)" xr:uid="{11D7B2DF-76E2-4ADE-A4BA-1E19C5EFB781}"/>
+    <hyperlink ref="B11" r:id="rId15" display="システムソフト・ベータ()" xr:uid="{1D34C896-CF3D-40E8-AF7B-7F3CF082BEB1}"/>
+    <hyperlink ref="B12" r:id="rId16" display="Cygames(両方)" xr:uid="{2EF70649-A579-4E7C-B035-A67786735ABC}"/>
+    <hyperlink ref="B13" r:id="rId17" display="アカツキ(どちらかといえばCG)" xr:uid="{3CE8CFED-B056-4EBC-B3D6-FFB32D8A8D1A}"/>
+    <hyperlink ref="B14" r:id="rId18" xr:uid="{26746399-4667-4542-A8C8-CBC1FAF61D2F}"/>
+    <hyperlink ref="C10" r:id="rId19" xr:uid="{61CFF7E9-0DFD-47EA-A5D6-B705C761B3CA}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{093AE9ED-488A-47AB-9AD8-82566F511871}"/>
+    <hyperlink ref="E9" r:id="rId21" xr:uid="{C7AD93BB-843E-48DE-8313-876C7D58E27C}"/>
+    <hyperlink ref="E8" r:id="rId22" xr:uid="{A7C62B5E-74FC-472A-97D3-E4D3651D3BCB}"/>
+    <hyperlink ref="C8" r:id="rId23" xr:uid="{1CB92493-2370-401E-9058-AEE3EB95B598}"/>
+    <hyperlink ref="C6" r:id="rId24" xr:uid="{A0AD509E-5A01-4BCB-8BDC-16B85AC4240D}"/>
+    <hyperlink ref="C3" r:id="rId25" location="Recruit" xr:uid="{DFD55890-1712-4751-8451-1330E9725F5A}"/>
+    <hyperlink ref="C4" r:id="rId26" xr:uid="{C749E087-3030-422C-A00B-4B53AC9F08C5}"/>
+    <hyperlink ref="E4" r:id="rId27" xr:uid="{3789460F-574F-490F-93D4-1B4466D57DE9}"/>
+    <hyperlink ref="C5" r:id="rId28" xr:uid="{1E062F15-D6E7-40BB-99F0-2965A2838A6A}"/>
+    <hyperlink ref="C2" r:id="rId29" xr:uid="{ED0C1832-10C1-4B60-B83C-CC06C043BEB4}"/>
+    <hyperlink ref="B17" r:id="rId30" xr:uid="{4CFEA92E-3F87-43F0-B339-5863EABBC11A}"/>
+    <hyperlink ref="C17" r:id="rId31" xr:uid="{2065AAD7-EE3A-4470-9B32-AE3EBC783509}"/>
+    <hyperlink ref="G17" r:id="rId32" xr:uid="{1DFBEE68-034B-476F-A91B-CE4EC6755381}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{117A619D-417B-48BC-8D68-824E21E4FEB8}"/>
+    <hyperlink ref="B19" r:id="rId34" xr:uid="{1CF2C591-EA81-4258-8B7F-CB6B757D861C}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{86BE8A35-DD59-4E8E-89AC-0EE043F04031}"/>
+    <hyperlink ref="E19" r:id="rId36" xr:uid="{502490BC-60AB-4187-9553-A4F63151CD46}"/>
+    <hyperlink ref="E11" r:id="rId37" xr:uid="{481C4E5A-39D3-4307-94BB-F734212FCC1F}"/>
+    <hyperlink ref="C20" r:id="rId38" xr:uid="{85F35F24-3759-4C81-821A-2B7FAC1B9630}"/>
+    <hyperlink ref="B15" r:id="rId39" xr:uid="{46F3DF7E-CF48-429D-8551-9FD666CAC3B9}"/>
+    <hyperlink ref="C15" r:id="rId40" xr:uid="{DA916CB0-2A65-4CED-9033-378A561667A0}"/>
+    <hyperlink ref="B16" r:id="rId41" xr:uid="{E815126C-8677-4FA4-BB60-5A5C2642A073}"/>
+    <hyperlink ref="C16" r:id="rId42" xr:uid="{14B854F2-BE66-4DCC-809B-9C36C38512BF}"/>
+    <hyperlink ref="G9" r:id="rId43" xr:uid="{63199F13-5770-461A-A39C-0D7BD3CA50B7}"/>
+    <hyperlink ref="E15" r:id="rId44" xr:uid="{3018D7E5-BD6A-4A6D-8FD0-82218ED456AE}"/>
+    <hyperlink ref="B20" r:id="rId45" xr:uid="{68AD3AB3-D383-4D32-A875-210126D68DF2}"/>
+    <hyperlink ref="E20" r:id="rId46" xr:uid="{0816161B-3F06-48B0-842C-4D15422A8718}"/>
+    <hyperlink ref="B21" r:id="rId47" xr:uid="{95DE4741-088C-4B29-BB98-3A48CDD714B3}"/>
+    <hyperlink ref="C21" r:id="rId48" xr:uid="{4BA27CC1-9547-4859-B58B-764B168BEE30}"/>
+    <hyperlink ref="E21" r:id="rId49" xr:uid="{6F32F417-8A10-45B6-A7EA-BC5F390822FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId50"/>
 </worksheet>
 </file>
--- a/企業関係.xlsx
+++ b/企業関係.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A72CD-B727-4DF6-B0C0-01B51D73185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A0E058-55A4-4CC3-9CBA-09650A000248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22B3409E-56E9-42E3-B993-65537D66DF2A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>日本一ソフトウェア</t>
     <phoneticPr fontId="1"/>
@@ -50,16 +50,6 @@
     </rPh>
     <rPh sb="11" eb="15">
       <t>ニッテイフメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通年採用
-一次：～2023年3月31日（金）
-二次：～2023年6月30日（金）
-三次：～2023年8月31日（木）</t>
-    <rPh sb="0" eb="4">
-      <t>ツウネンサイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -614,6 +604,74 @@
   </si>
   <si>
     <t>https://job.mynavi.jp/25/pc/corpinfo/displayPrevRecruitingCourseList/index?corpId=97284</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FELISTELLA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://felistella.co.jp/recruit/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロム・ソフトウェア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://careers.fromsoftware.jp/jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exsa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.exsa.jp/recruit.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマーの募集なし</t>
+    <rPh sb="7" eb="9">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイバーコネクトツー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.cc2.co.jp/recruit/?p=3293</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2025年3月卒業見込みの学生の方
+一次募集締切：2024年3月17日(日)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.cc2.co.jp/recruit/?page_id=9432</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2024年1月28日（日）〆切
+	▼ゲームデザイナーコース、プログラマーコース
+2024年3月18日（月）～3月25日（月） ※土日祝除く5日間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通年採用(24卒)
+一次：～2023年3月31日（金）
+二次：～2023年6月30日（金）
+三次：～2023年8月31日（木）</t>
+    <rPh sb="0" eb="4">
+      <t>ツウネンサイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーエーテクモ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -893,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +1024,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,14 +1066,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1326,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597FD4CE-D064-4429-BBD2-6F67AEE62654}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1346,99 +1410,99 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
-        <v>81</v>
+      <c r="A2" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1446,340 +1510,425 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="94.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="27"/>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="F15" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="G17" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="27"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="8" t="s">
+    <row r="19" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="27"/>
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="E20" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="38"/>
+      <c r="B27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1842,8 +1991,17 @@
     <hyperlink ref="B21" r:id="rId47" xr:uid="{95DE4741-088C-4B29-BB98-3A48CDD714B3}"/>
     <hyperlink ref="C21" r:id="rId48" xr:uid="{4BA27CC1-9547-4859-B58B-764B168BEE30}"/>
     <hyperlink ref="E21" r:id="rId49" xr:uid="{6F32F417-8A10-45B6-A7EA-BC5F390822FB}"/>
+    <hyperlink ref="B24" r:id="rId50" xr:uid="{A4E5CD6F-91EA-4161-B802-BF146AF4E26B}"/>
+    <hyperlink ref="C24" r:id="rId51" xr:uid="{E18B3161-A77F-4553-BF20-308E49A89670}"/>
+    <hyperlink ref="B25" r:id="rId52" xr:uid="{E16C5788-B58A-4CEB-A45E-67AA88FC3E3A}"/>
+    <hyperlink ref="C25" r:id="rId53" xr:uid="{9FF06E6A-109A-4D65-913C-218788B96061}"/>
+    <hyperlink ref="B26" r:id="rId54" xr:uid="{EB8F9CDC-FAAF-4D7E-A850-8AE9E8BA28E3}"/>
+    <hyperlink ref="C26" r:id="rId55" xr:uid="{372AB827-1702-4D7E-8368-7A4B30E4E20E}"/>
+    <hyperlink ref="B27" r:id="rId56" xr:uid="{37AA3B71-0A50-4EA4-B51B-540C5C39DC4C}"/>
+    <hyperlink ref="C27" r:id="rId57" xr:uid="{21601F5F-FC32-48F4-BFF4-FD44F1ADDC43}"/>
+    <hyperlink ref="E27" r:id="rId58" xr:uid="{18F6D8D6-8C57-403F-86A1-D84F58B22714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId59"/>
 </worksheet>
 </file>